--- a/Class.xlsx
+++ b/Class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 MIA\II APRENDIZAJE DE MAQUINA\ML CODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F5FC55D-AD5A-4434-A9CC-151AACB751AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6BDF12-BE3F-4B23-A865-A385D32AD0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{F22A1B9E-DD04-45F2-A807-B445DED3C591}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>ventas</t>
+    <t>Per</t>
   </si>
   <si>
-    <t>personal</t>
+    <t>Vent</t>
+  </si>
+  <si>
+    <t>Lab</t>
   </si>
 </sst>
 </file>
@@ -415,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A72534-46DE-456B-93F4-31789C112BFD}">
   <dimension ref="A1:C4587"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A4802" sqref="A4588:XFD4802"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,10 +431,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
